--- a/biology/Médecine/James_Whyte_Black/James_Whyte_Black.xlsx
+++ b/biology/Médecine/James_Whyte_Black/James_Whyte_Black.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sir James Whyte Black, né le 14 juillet 1924 et mort le 22 mars 2010[1], est un médecin et pharmacologue écossais qui a inventé le propranolol et a participé activement à la synthèse de la cimétidine. Il a obtenu le Prix Nobel de physiologie ou médecine en 1988 (avec Gertrude Elion et George Hitchings) pour cette découverte.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sir James Whyte Black, né le 14 juillet 1924 et mort le 22 mars 2010, est un médecin et pharmacologue écossais qui a inventé le propranolol et a participé activement à la synthèse de la cimétidine. Il a obtenu le Prix Nobel de physiologie ou médecine en 1988 (avec Gertrude Elion et George Hitchings) pour cette découverte.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Black a fait ses études à l'université de St Andrews, Fife, où il a étudié la médecine, notamment via le département de physiologie, puis fut maître de conférences à l'Université de Malaya. À son retour en Écosse, en 1950, il a rejoint l'université de Glasgow où il a créé le département de physiologie.
 Il a été employé par Imperial Chemical Industries (1958-1964), GlaxoSmithKline (1964-1973) et la Wellcome Trust (1978-1984) et a été nommé professeur de pharmacologie à l'university College de Londres (1973-1978) et le King's College de Londres (1984-1992).
 Sir James Black contribua à la cardiologie, en tant que médecin et en tant que scientifique. Son invention du propranolol a révolutionné la gestion médicale de l'angine de poitrine.
 Il a également démontré, en 1972, la sélectivité des nouveaux antihistaminiques vis-à-vis de l'estomac et suggère alors deux sortes de récepteurs histaminiques : les récepteurs H1 impliqués dans les phénomènes allergiques (l'anaphylaxie) et les récepteurs H2 impliqués dans la sécrétion acide de l'estomac (les ulcères).
 Il a été le chancelier de l'université de Dundee entre 1992 et mai 2006.
-Il a été fait Knight Bachelor en 1981[2]. En 2000, Sir James a été nommé à l'Ordre du mérite[3] par la reine Élisabeth II. Il a été élu à la Royal Society en 1976[4] et la même année, il a reçu le prix Albert-Lasker.
+Il a été fait Knight Bachelor en 1981. En 2000, Sir James a été nommé à l'Ordre du mérite par la reine Élisabeth II. Il a été élu à la Royal Society en 1976 et la même année, il a reçu le prix Albert-Lasker.
 </t>
         </is>
       </c>
